--- a/QQ_norm_ls.xlsx
+++ b/QQ_norm_ls.xlsx
@@ -466,7 +466,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.9228458156113985</v>
+        <v>0.9228458156113984</v>
       </c>
     </row>
     <row r="23">
@@ -481,12 +481,12 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.9137876601094374</v>
+        <v>0.9137876601094373</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.9386793174239178</v>
+        <v>0.9386793174239177</v>
       </c>
     </row>
     <row r="27">
@@ -546,7 +546,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.8710385050986838</v>
+        <v>0.8710385050986837</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.9577476963651243</v>
+        <v>0.9577476963651242</v>
       </c>
     </row>
     <row r="78">
@@ -776,7 +776,7 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.954334662174321</v>
+        <v>0.9543346621743209</v>
       </c>
     </row>
     <row r="85">
@@ -891,7 +891,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.9174173839247019</v>
+        <v>0.9174173839247018</v>
       </c>
     </row>
     <row r="108">
@@ -906,7 +906,7 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.8439645068936869</v>
+        <v>0.8439645068936868</v>
       </c>
     </row>
     <row r="111">
@@ -1016,7 +1016,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.9556452206556259</v>
+        <v>0.9556452206556258</v>
       </c>
     </row>
     <row r="133">
@@ -1131,7 +1131,7 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.649565285212714</v>
+        <v>0.6495652852127139</v>
       </c>
     </row>
     <row r="156">
@@ -1186,7 +1186,7 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.8177469898378073</v>
+        <v>0.8177469898378072</v>
       </c>
     </row>
     <row r="167">
@@ -1386,7 +1386,7 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.749618088552018</v>
+        <v>0.7496180885520179</v>
       </c>
     </row>
     <row r="207">
@@ -1436,12 +1436,12 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.4827789760160886</v>
+        <v>0.4827789760160885</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.5940168572310473</v>
+        <v>0.5940168572310472</v>
       </c>
     </row>
     <row r="218">
@@ -1681,7 +1681,7 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.5485765666334233</v>
+        <v>0.5485765666334232</v>
       </c>
     </row>
     <row r="266">
@@ -1751,7 +1751,7 @@
     </row>
     <row r="279">
       <c r="A279">
-        <v>0.9501299321271342</v>
+        <v>0.9501299321271341</v>
       </c>
     </row>
     <row r="280">
@@ -1876,7 +1876,7 @@
     </row>
     <row r="304">
       <c r="A304">
-        <v>0.8915426510800683</v>
+        <v>0.8915426510800682</v>
       </c>
     </row>
     <row r="305">
@@ -1976,7 +1976,7 @@
     </row>
     <row r="324">
       <c r="A324">
-        <v>0.9462443894796006</v>
+        <v>0.9462443894796005</v>
       </c>
     </row>
     <row r="325">
@@ -2021,7 +2021,7 @@
     </row>
     <row r="333">
       <c r="A333">
-        <v>0.9843802332756702</v>
+        <v>0.9843802332756701</v>
       </c>
     </row>
     <row r="334">
@@ -2071,7 +2071,7 @@
     </row>
     <row r="343">
       <c r="A343">
-        <v>0.9451345742751403</v>
+        <v>0.9451345742751402</v>
       </c>
     </row>
     <row r="344">
@@ -2161,7 +2161,7 @@
     </row>
     <row r="361">
       <c r="A361">
-        <v>0.940413325171012</v>
+        <v>0.9404133251710119</v>
       </c>
     </row>
     <row r="362">
@@ -2201,7 +2201,7 @@
     </row>
     <row r="369">
       <c r="A369">
-        <v>0.8907142231849135</v>
+        <v>0.8907142231849134</v>
       </c>
     </row>
     <row r="370">
@@ -2456,7 +2456,7 @@
     </row>
     <row r="420">
       <c r="A420">
-        <v>0.7082797468070911</v>
+        <v>0.708279746807091</v>
       </c>
     </row>
     <row r="421">
@@ -2786,7 +2786,7 @@
     </row>
     <row r="486">
       <c r="A486">
-        <v>0.9976577066388545</v>
+        <v>0.9976577066388544</v>
       </c>
     </row>
     <row r="487">
@@ -2866,7 +2866,7 @@
     </row>
     <row r="502">
       <c r="A502">
-        <v>0.9111321931815331</v>
+        <v>0.911132193181533</v>
       </c>
     </row>
     <row r="503">
@@ -2956,7 +2956,7 @@
     </row>
     <row r="520">
       <c r="A520">
-        <v>0.7311283988560841</v>
+        <v>0.731128398856084</v>
       </c>
     </row>
     <row r="521">
@@ -3031,7 +3031,7 @@
     </row>
     <row r="535">
       <c r="A535">
-        <v>0.7960570928202631</v>
+        <v>0.796057092820263</v>
       </c>
     </row>
     <row r="536">
@@ -3196,7 +3196,7 @@
     </row>
     <row r="568">
       <c r="A568">
-        <v>0.8866578745725549</v>
+        <v>0.8866578745725548</v>
       </c>
     </row>
     <row r="569">
@@ -3256,7 +3256,7 @@
     </row>
     <row r="580">
       <c r="A580">
-        <v>0.9925668731040021</v>
+        <v>0.992566873104002</v>
       </c>
     </row>
     <row r="581">
@@ -3286,7 +3286,7 @@
     </row>
     <row r="586">
       <c r="A586">
-        <v>0.95890378215221</v>
+        <v>0.9589037821522099</v>
       </c>
     </row>
     <row r="587">
@@ -3576,7 +3576,7 @@
     </row>
     <row r="644">
       <c r="A644">
-        <v>0.9367548424339171</v>
+        <v>0.936754842433917</v>
       </c>
     </row>
     <row r="645">
@@ -3686,7 +3686,7 @@
     </row>
     <row r="666">
       <c r="A666">
-        <v>0.8040096671383507</v>
+        <v>0.8040096671383506</v>
       </c>
     </row>
     <row r="667">
@@ -3726,7 +3726,7 @@
     </row>
     <row r="674">
       <c r="A674">
-        <v>0.8764903100006261</v>
+        <v>0.876490310000626</v>
       </c>
     </row>
     <row r="675">
@@ -3911,7 +3911,7 @@
     </row>
     <row r="711">
       <c r="A711">
-        <v>0.6827527033240936</v>
+        <v>0.6827527033240935</v>
       </c>
     </row>
     <row r="712">
@@ -4026,7 +4026,7 @@
     </row>
     <row r="734">
       <c r="A734">
-        <v>0.7562083871483915</v>
+        <v>0.7562083871483914</v>
       </c>
     </row>
     <row r="735">
@@ -4096,7 +4096,7 @@
     </row>
     <row r="748">
       <c r="A748">
-        <v>0.9734277365724287</v>
+        <v>0.9734277365724286</v>
       </c>
     </row>
     <row r="749">
@@ -4236,7 +4236,7 @@
     </row>
     <row r="776">
       <c r="A776">
-        <v>0.8370740609863288</v>
+        <v>0.8370740609863287</v>
       </c>
     </row>
     <row r="777">
@@ -4261,7 +4261,7 @@
     </row>
     <row r="781">
       <c r="A781">
-        <v>0.9652153055012595</v>
+        <v>0.9652153055012594</v>
       </c>
     </row>
     <row r="782">
@@ -4376,7 +4376,7 @@
     </row>
     <row r="804">
       <c r="A804">
-        <v>0.9014992663607006</v>
+        <v>0.9014992663607005</v>
       </c>
     </row>
     <row r="805">
@@ -4456,7 +4456,7 @@
     </row>
     <row r="820">
       <c r="A820">
-        <v>0.9826769753186117</v>
+        <v>0.9826769753186116</v>
       </c>
     </row>
     <row r="821">
@@ -4531,7 +4531,7 @@
     </row>
     <row r="835">
       <c r="A835">
-        <v>0.6526279196542149</v>
+        <v>0.6526279196542148</v>
       </c>
     </row>
     <row r="836">
@@ -4701,7 +4701,7 @@
     </row>
     <row r="869">
       <c r="A869">
-        <v>0.87275487689559</v>
+        <v>0.8727548768955899</v>
       </c>
     </row>
     <row r="870">
@@ -4716,7 +4716,7 @@
     </row>
     <row r="872">
       <c r="A872">
-        <v>0.8273039277544692</v>
+        <v>0.8273039277544691</v>
       </c>
     </row>
     <row r="873">
@@ -4851,7 +4851,7 @@
     </row>
     <row r="899">
       <c r="A899">
-        <v>0.7013071203338736</v>
+        <v>0.7013071203338735</v>
       </c>
     </row>
     <row r="900">
@@ -4876,7 +4876,7 @@
     </row>
     <row r="904">
       <c r="A904">
-        <v>0.753762414141598</v>
+        <v>0.7537624141415979</v>
       </c>
     </row>
     <row r="905">
@@ -4921,7 +4921,7 @@
     </row>
     <row r="913">
       <c r="A913">
-        <v>0.8576703403789922</v>
+        <v>0.8576703403789921</v>
       </c>
     </row>
     <row r="914">
@@ -4946,7 +4946,7 @@
     </row>
     <row r="918">
       <c r="A918">
-        <v>0.9745217466425759</v>
+        <v>0.9745217466425758</v>
       </c>
     </row>
     <row r="919">
@@ -5151,7 +5151,7 @@
     </row>
     <row r="959">
       <c r="A959">
-        <v>0.4786971189610118</v>
+        <v>0.4786971189610117</v>
       </c>
     </row>
     <row r="960">
@@ -5191,12 +5191,12 @@
     </row>
     <row r="967">
       <c r="A967">
-        <v>0.7230050154829703</v>
+        <v>0.7230050154829702</v>
       </c>
     </row>
     <row r="968">
       <c r="A968">
-        <v>0.8917145321520174</v>
+        <v>0.8917145321520173</v>
       </c>
     </row>
     <row r="969">
@@ -5306,7 +5306,7 @@
     </row>
     <row r="990">
       <c r="A990">
-        <v>0.884119317963659</v>
+        <v>0.8841193179636589</v>
       </c>
     </row>
     <row r="991">
@@ -5521,7 +5521,7 @@
     </row>
     <row r="1033">
       <c r="A1033">
-        <v>0.8977939081214093</v>
+        <v>0.8977939081214092</v>
       </c>
     </row>
     <row r="1034">
@@ -5591,7 +5591,7 @@
     </row>
     <row r="1047">
       <c r="A1047">
-        <v>0.9125592499038731</v>
+        <v>0.912559249903873</v>
       </c>
     </row>
     <row r="1048">
@@ -5711,7 +5711,7 @@
     </row>
     <row r="1071">
       <c r="A1071">
-        <v>0.9834842928010859</v>
+        <v>0.9834842928010858</v>
       </c>
     </row>
     <row r="1072">
@@ -5826,7 +5826,7 @@
     </row>
     <row r="1094">
       <c r="A1094">
-        <v>0.9908753663693452</v>
+        <v>0.9908753663693451</v>
       </c>
     </row>
     <row r="1095">
@@ -5871,17 +5871,17 @@
     </row>
     <row r="1103">
       <c r="A1103">
-        <v>0.9346737879702231</v>
+        <v>0.934673787970223</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104">
-        <v>0.9657555396538518</v>
+        <v>0.9657555396538517</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105">
-        <v>0.9040963588645165</v>
+        <v>0.9040963588645164</v>
       </c>
     </row>
     <row r="1106">
@@ -5991,7 +5991,7 @@
     </row>
     <row r="1127">
       <c r="A1127">
-        <v>0.8105942505260138</v>
+        <v>0.8105942505260137</v>
       </c>
     </row>
     <row r="1128">
@@ -6191,7 +6191,7 @@
     </row>
     <row r="1167">
       <c r="A1167">
-        <v>0.8849130136768058</v>
+        <v>0.8849130136768057</v>
       </c>
     </row>
     <row r="1168">
@@ -6216,7 +6216,7 @@
     </row>
     <row r="1172">
       <c r="A1172">
-        <v>0.7464807607715454</v>
+        <v>0.7464807607715453</v>
       </c>
     </row>
     <row r="1173">
@@ -6226,7 +6226,7 @@
     </row>
     <row r="1174">
       <c r="A1174">
-        <v>0.9231457882993595</v>
+        <v>0.9231457882993594</v>
       </c>
     </row>
     <row r="1175">
@@ -6451,7 +6451,7 @@
     </row>
     <row r="1219">
       <c r="A1219">
-        <v>0.8794783170832679</v>
+        <v>0.8794783170832678</v>
       </c>
     </row>
     <row r="1220">
@@ -6506,7 +6506,7 @@
     </row>
     <row r="1230">
       <c r="A1230">
-        <v>0.7937217541166886</v>
+        <v>0.7937217541166885</v>
       </c>
     </row>
     <row r="1231">
@@ -6516,7 +6516,7 @@
     </row>
     <row r="1232">
       <c r="A1232">
-        <v>0.9605088808040883</v>
+        <v>0.9605088808040882</v>
       </c>
     </row>
     <row r="1233">
@@ -6601,7 +6601,7 @@
     </row>
     <row r="1249">
       <c r="A1249">
-        <v>0.761629980047062</v>
+        <v>0.7616299800470619</v>
       </c>
     </row>
     <row r="1250">
@@ -6856,7 +6856,7 @@
     </row>
     <row r="1300">
       <c r="A1300">
-        <v>0.7318364899621696</v>
+        <v>0.7318364899621695</v>
       </c>
     </row>
     <row r="1301">
@@ -6976,7 +6976,7 @@
     </row>
     <row r="1324">
       <c r="A1324">
-        <v>0.9660759290332242</v>
+        <v>0.9660759290332241</v>
       </c>
     </row>
     <row r="1325">
@@ -7116,7 +7116,7 @@
     </row>
     <row r="1352">
       <c r="A1352">
-        <v>0.8723830357681957</v>
+        <v>0.8723830357681956</v>
       </c>
     </row>
     <row r="1353">
@@ -7126,7 +7126,7 @@
     </row>
     <row r="1354">
       <c r="A1354">
-        <v>0.5289044179466405</v>
+        <v>0.5289044179466404</v>
       </c>
     </row>
     <row r="1355">
@@ -7161,12 +7161,12 @@
     </row>
     <row r="1361">
       <c r="A1361">
-        <v>0.9390511346219505</v>
+        <v>0.9390511346219504</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362">
-        <v>0.7404408800085121</v>
+        <v>0.740440880008512</v>
       </c>
     </row>
     <row r="1363">
@@ -7251,7 +7251,7 @@
     </row>
     <row r="1379">
       <c r="A1379">
-        <v>0.8724042574927498</v>
+        <v>0.8724042574927497</v>
       </c>
     </row>
     <row r="1380">
@@ -7446,7 +7446,7 @@
     </row>
     <row r="1418">
       <c r="A1418">
-        <v>0.9569426471362788</v>
+        <v>0.9569426471362787</v>
       </c>
     </row>
     <row r="1419">
@@ -7731,7 +7731,7 @@
     </row>
     <row r="1475">
       <c r="A1475">
-        <v>0.9798653656242296</v>
+        <v>0.9798653656242295</v>
       </c>
     </row>
     <row r="1476">
@@ -7806,7 +7806,7 @@
     </row>
     <row r="1490">
       <c r="A1490">
-        <v>0.9601258675543049</v>
+        <v>0.9601258675543048</v>
       </c>
     </row>
     <row r="1491">
@@ -8001,7 +8001,7 @@
     </row>
     <row r="1529">
       <c r="A1529">
-        <v>0.9282001601756224</v>
+        <v>0.9282001601756223</v>
       </c>
     </row>
     <row r="1530">
@@ -8281,7 +8281,7 @@
     </row>
     <row r="1585">
       <c r="A1585">
-        <v>0.4912584230169712</v>
+        <v>0.4912584230169711</v>
       </c>
     </row>
     <row r="1586">
@@ -8466,7 +8466,7 @@
     </row>
     <row r="1622">
       <c r="A1622">
-        <v>0.9316720540934153</v>
+        <v>0.9316720540934152</v>
       </c>
     </row>
     <row r="1623">
@@ -8596,7 +8596,7 @@
     </row>
     <row r="1648">
       <c r="A1648">
-        <v>0.6983891075939887</v>
+        <v>0.6983891075939886</v>
       </c>
     </row>
     <row r="1649">
@@ -8631,7 +8631,7 @@
     </row>
     <row r="1655">
       <c r="A1655">
-        <v>0.7912670727841557</v>
+        <v>0.7912670727841556</v>
       </c>
     </row>
     <row r="1656">
@@ -8711,7 +8711,7 @@
     </row>
     <row r="1671">
       <c r="A1671">
-        <v>0.98223999981727</v>
+        <v>0.9822399998172699</v>
       </c>
     </row>
     <row r="1672">
@@ -8776,7 +8776,7 @@
     </row>
     <row r="1684">
       <c r="A1684">
-        <v>0.937375317723456</v>
+        <v>0.9373753177234559</v>
       </c>
     </row>
     <row r="1685">
@@ -9001,7 +9001,7 @@
     </row>
     <row r="1729">
       <c r="A1729">
-        <v>0.713432511274876</v>
+        <v>0.7134325112748759</v>
       </c>
     </row>
     <row r="1730">
@@ -9041,7 +9041,7 @@
     </row>
     <row r="1737">
       <c r="A1737">
-        <v>0.669186000941209</v>
+        <v>0.6691860009412089</v>
       </c>
     </row>
     <row r="1738">
@@ -9051,7 +9051,7 @@
     </row>
     <row r="1739">
       <c r="A1739">
-        <v>0.6225643486145222</v>
+        <v>0.6225643486145221</v>
       </c>
     </row>
     <row r="1740">
@@ -9071,7 +9071,7 @@
     </row>
     <row r="1743">
       <c r="A1743">
-        <v>0.639719735119258</v>
+        <v>0.6397197351192579</v>
       </c>
     </row>
     <row r="1744">
@@ -9096,12 +9096,12 @@
     </row>
     <row r="1748">
       <c r="A1748">
-        <v>0.8881532651163721</v>
+        <v>0.888153265116372</v>
       </c>
     </row>
     <row r="1749">
       <c r="A1749">
-        <v>0.6848201374472454</v>
+        <v>0.6848201374472453</v>
       </c>
     </row>
     <row r="1750">
@@ -9316,7 +9316,7 @@
     </row>
     <row r="1792">
       <c r="A1792">
-        <v>0.9826278060861609</v>
+        <v>0.9826278060861608</v>
       </c>
     </row>
     <row r="1793">
@@ -9356,7 +9356,7 @@
     </row>
     <row r="1800">
       <c r="A1800">
-        <v>0.8525467804302797</v>
+        <v>0.8525467804302796</v>
       </c>
     </row>
     <row r="1801">
@@ -9466,7 +9466,7 @@
     </row>
     <row r="1822">
       <c r="A1822">
-        <v>0.5981387453744304</v>
+        <v>0.5981387453744303</v>
       </c>
     </row>
     <row r="1823">
@@ -9551,7 +9551,7 @@
     </row>
     <row r="1839">
       <c r="A1839">
-        <v>0.9263633802128422</v>
+        <v>0.9263633802128421</v>
       </c>
     </row>
     <row r="1840">
@@ -9601,7 +9601,7 @@
     </row>
     <row r="1849">
       <c r="A1849">
-        <v>0.7822174823144446</v>
+        <v>0.7822174823144445</v>
       </c>
     </row>
     <row r="1850">
@@ -9626,7 +9626,7 @@
     </row>
     <row r="1854">
       <c r="A1854">
-        <v>0.7420753453850159</v>
+        <v>0.7420753453850158</v>
       </c>
     </row>
     <row r="1855">
@@ -9706,7 +9706,7 @@
     </row>
     <row r="1870">
       <c r="A1870">
-        <v>0.6787379137994593</v>
+        <v>0.6787379137994592</v>
       </c>
     </row>
     <row r="1871">
@@ -10111,7 +10111,7 @@
     </row>
     <row r="1951">
       <c r="A1951">
-        <v>0.751087210019377</v>
+        <v>0.7510872100193769</v>
       </c>
     </row>
     <row r="1952">
@@ -10126,7 +10126,7 @@
     </row>
     <row r="1954">
       <c r="A1954">
-        <v>0.8003574221736624</v>
+        <v>0.8003574221736623</v>
       </c>
     </row>
     <row r="1955">
@@ -10146,7 +10146,7 @@
     </row>
     <row r="1958">
       <c r="A1958">
-        <v>0.8509172212346327</v>
+        <v>0.8509172212346326</v>
       </c>
     </row>
     <row r="1959">
@@ -10236,7 +10236,7 @@
     </row>
     <row r="1976">
       <c r="A1976">
-        <v>0.6631301239918716</v>
+        <v>0.6631301239918715</v>
       </c>
     </row>
     <row r="1977">
@@ -10261,7 +10261,7 @@
     </row>
     <row r="1981">
       <c r="A1981">
-        <v>0.8854998102461436</v>
+        <v>0.8854998102461435</v>
       </c>
     </row>
     <row r="1982">
@@ -10391,7 +10391,7 @@
     </row>
     <row r="2007">
       <c r="A2007">
-        <v>0.7852223486456778</v>
+        <v>0.7852223486456777</v>
       </c>
     </row>
     <row r="2008">
@@ -10421,12 +10421,12 @@
     </row>
     <row r="2013">
       <c r="A2013">
-        <v>0.8459445541779666</v>
+        <v>0.8459445541779665</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014">
-        <v>0.8298827823896448</v>
+        <v>0.8298827823896447</v>
       </c>
     </row>
     <row r="2015">
@@ -10451,7 +10451,7 @@
     </row>
     <row r="2019">
       <c r="A2019">
-        <v>0.9636681861105551</v>
+        <v>0.963668186110555</v>
       </c>
     </row>
     <row r="2020">
@@ -10586,7 +10586,7 @@
     </row>
     <row r="2046">
       <c r="A2046">
-        <v>0.8919735834567119</v>
+        <v>0.8919735834567118</v>
       </c>
     </row>
     <row r="2047">
@@ -10676,7 +10676,7 @@
     </row>
     <row r="2064">
       <c r="A2064">
-        <v>0.745167864710848</v>
+        <v>0.7451678647108479</v>
       </c>
     </row>
     <row r="2065">
@@ -10781,7 +10781,7 @@
     </row>
     <row r="2085">
       <c r="A2085">
-        <v>0.9412528493687729</v>
+        <v>0.9412528493687728</v>
       </c>
     </row>
     <row r="2086">
@@ -10836,7 +10836,7 @@
     </row>
     <row r="2096">
       <c r="A2096">
-        <v>0.9295278770390038</v>
+        <v>0.9295278770390037</v>
       </c>
     </row>
     <row r="2097">
@@ -11376,7 +11376,7 @@
     </row>
     <row r="2204">
       <c r="A2204">
-        <v>0.9762810541246279</v>
+        <v>0.9762810541246278</v>
       </c>
     </row>
     <row r="2205">
@@ -11396,7 +11396,7 @@
     </row>
     <row r="2208">
       <c r="A2208">
-        <v>0.6773285081733153</v>
+        <v>0.6773285081733152</v>
       </c>
     </row>
     <row r="2209">
@@ -11431,7 +11431,7 @@
     </row>
     <row r="2215">
       <c r="A2215">
-        <v>0.9456236933588899</v>
+        <v>0.9456236933588898</v>
       </c>
     </row>
     <row r="2216">
@@ -11511,7 +11511,7 @@
     </row>
     <row r="2231">
       <c r="A2231">
-        <v>0.6577973187598784</v>
+        <v>0.6577973187598783</v>
       </c>
     </row>
     <row r="2232">
@@ -11646,7 +11646,7 @@
     </row>
     <row r="2258">
       <c r="A2258">
-        <v>0.9891064411314287</v>
+        <v>0.9891064411314286</v>
       </c>
     </row>
     <row r="2259">
@@ -11656,7 +11656,7 @@
     </row>
     <row r="2260">
       <c r="A2260">
-        <v>0.8355810826120959</v>
+        <v>0.8355810826120958</v>
       </c>
     </row>
     <row r="2261">
@@ -11811,12 +11811,12 @@
     </row>
     <row r="2291">
       <c r="A2291">
-        <v>0.8868241418547767</v>
+        <v>0.8868241418547766</v>
       </c>
     </row>
     <row r="2292">
       <c r="A2292">
-        <v>0.6960278443890045</v>
+        <v>0.6960278443890044</v>
       </c>
     </row>
     <row r="2293">
@@ -11896,7 +11896,7 @@
     </row>
     <row r="2308">
       <c r="A2308">
-        <v>0.8771217012987445</v>
+        <v>0.8771217012987444</v>
       </c>
     </row>
     <row r="2309">
@@ -12036,7 +12036,7 @@
     </row>
     <row r="2336">
       <c r="A2336">
-        <v>0.94002693627257</v>
+        <v>0.9400269362725699</v>
       </c>
     </row>
     <row r="2337">
@@ -12056,7 +12056,7 @@
     </row>
     <row r="2340">
       <c r="A2340">
-        <v>0.9920951169135494</v>
+        <v>0.9920951169135493</v>
       </c>
     </row>
     <row r="2341">
@@ -12191,12 +12191,12 @@
     </row>
     <row r="2367">
       <c r="A2367">
-        <v>0.8855800133613379</v>
+        <v>0.8855800133613378</v>
       </c>
     </row>
     <row r="2368">
       <c r="A2368">
-        <v>0.8786212115418352</v>
+        <v>0.8786212115418351</v>
       </c>
     </row>
     <row r="2369">
@@ -12276,7 +12276,7 @@
     </row>
     <row r="2384">
       <c r="A2384">
-        <v>0.9863911731798875</v>
+        <v>0.9863911731798874</v>
       </c>
     </row>
     <row r="2385">
@@ -12416,7 +12416,7 @@
     </row>
     <row r="2412">
       <c r="A2412">
-        <v>0.785548250509359</v>
+        <v>0.7855482505093589</v>
       </c>
     </row>
     <row r="2413">
@@ -12436,7 +12436,7 @@
     </row>
     <row r="2416">
       <c r="A2416">
-        <v>0.9108516286137725</v>
+        <v>0.9108516286137724</v>
       </c>
     </row>
     <row r="2417">
@@ -12521,7 +12521,7 @@
     </row>
     <row r="2433">
       <c r="A2433">
-        <v>0.9321739092656483</v>
+        <v>0.9321739092656482</v>
       </c>
     </row>
     <row r="2434">
@@ -12656,7 +12656,7 @@
     </row>
     <row r="2460">
       <c r="A2460">
-        <v>0.7663285814932948</v>
+        <v>0.7663285814932947</v>
       </c>
     </row>
     <row r="2461">
@@ -12836,7 +12836,7 @@
     </row>
     <row r="2496">
       <c r="A2496">
-        <v>0.9378667956791184</v>
+        <v>0.9378667956791183</v>
       </c>
     </row>
     <row r="2497">
@@ -12996,7 +12996,7 @@
     </row>
     <row r="2528">
       <c r="A2528">
-        <v>0.6973269797940092</v>
+        <v>0.6973269797940091</v>
       </c>
     </row>
     <row r="2529">
@@ -13161,7 +13161,7 @@
     </row>
     <row r="2561">
       <c r="A2561">
-        <v>0.8319948506920502</v>
+        <v>0.8319948506920501</v>
       </c>
     </row>
     <row r="2562">
@@ -13246,7 +13246,7 @@
     </row>
     <row r="2578">
       <c r="A2578">
-        <v>0.8575403076638613</v>
+        <v>0.8575403076638612</v>
       </c>
     </row>
     <row r="2579">
@@ -13496,7 +13496,7 @@
     </row>
     <row r="2628">
       <c r="A2628">
-        <v>0.8483745595904531</v>
+        <v>0.848374559590453</v>
       </c>
     </row>
     <row r="2629">
@@ -13581,7 +13581,7 @@
     </row>
     <row r="2645">
       <c r="A2645">
-        <v>0.6879194142270168</v>
+        <v>0.6879194142270167</v>
       </c>
     </row>
     <row r="2646">
@@ -13861,7 +13861,7 @@
     </row>
     <row r="2701">
       <c r="A2701">
-        <v>0.9586287210968622</v>
+        <v>0.9586287210968621</v>
       </c>
     </row>
     <row r="2702">
@@ -13891,7 +13891,7 @@
     </row>
     <row r="2707">
       <c r="A2707">
-        <v>0.9234987262955317</v>
+        <v>0.9234987262955316</v>
       </c>
     </row>
     <row r="2708">
@@ -14061,7 +14061,7 @@
     </row>
     <row r="2741">
       <c r="A2741">
-        <v>0.8261062507441525</v>
+        <v>0.8261062507441524</v>
       </c>
     </row>
     <row r="2742">
@@ -14081,7 +14081,7 @@
     </row>
     <row r="2745">
       <c r="A2745">
-        <v>0.8286697625576061</v>
+        <v>0.828669762557606</v>
       </c>
     </row>
     <row r="2746">
@@ -14106,7 +14106,7 @@
     </row>
     <row r="2750">
       <c r="A2750">
-        <v>0.8619672475359717</v>
+        <v>0.8619672475359716</v>
       </c>
     </row>
     <row r="2751">
@@ -14221,7 +14221,7 @@
     </row>
     <row r="2773">
       <c r="A2773">
-        <v>0.8412765707718956</v>
+        <v>0.8412765707718955</v>
       </c>
     </row>
     <row r="2774">
@@ -14316,7 +14316,7 @@
     </row>
     <row r="2792">
       <c r="A2792">
-        <v>0.5047457927600239</v>
+        <v>0.5047457927600238</v>
       </c>
     </row>
     <row r="2793">
@@ -14366,7 +14366,7 @@
     </row>
     <row r="2802">
       <c r="A2802">
-        <v>0.8761383706664822</v>
+        <v>0.8761383706664821</v>
       </c>
     </row>
     <row r="2803">
@@ -14521,7 +14521,7 @@
     </row>
     <row r="2833">
       <c r="A2833">
-        <v>0.8726563159402409</v>
+        <v>0.8726563159402408</v>
       </c>
     </row>
     <row r="2834">
@@ -14541,7 +14541,7 @@
     </row>
     <row r="2837">
       <c r="A2837">
-        <v>0.9580597249826806</v>
+        <v>0.9580597249826805</v>
       </c>
     </row>
     <row r="2838">
@@ -14621,7 +14621,7 @@
     </row>
     <row r="2853">
       <c r="A2853">
-        <v>0.5807239691649389</v>
+        <v>0.5807239691649388</v>
       </c>
     </row>
     <row r="2854">
@@ -14671,12 +14671,12 @@
     </row>
     <row r="2863">
       <c r="A2863">
-        <v>0.962244171800752</v>
+        <v>0.9622441718007519</v>
       </c>
     </row>
     <row r="2864">
       <c r="A2864">
-        <v>0.7841477441877393</v>
+        <v>0.7841477441877392</v>
       </c>
     </row>
     <row r="2865">
@@ -14746,7 +14746,7 @@
     </row>
     <row r="2878">
       <c r="A2878">
-        <v>0.9481748776290983</v>
+        <v>0.9481748776290982</v>
       </c>
     </row>
     <row r="2879">
@@ -14786,7 +14786,7 @@
     </row>
     <row r="2886">
       <c r="A2886">
-        <v>0.7538490036017878</v>
+        <v>0.7538490036017877</v>
       </c>
     </row>
     <row r="2887">
@@ -14836,7 +14836,7 @@
     </row>
     <row r="2896">
       <c r="A2896">
-        <v>0.8021966621864271</v>
+        <v>0.802196662186427</v>
       </c>
     </row>
     <row r="2897">
@@ -14881,7 +14881,7 @@
     </row>
     <row r="2905">
       <c r="A2905">
-        <v>0.9060299650598686</v>
+        <v>0.9060299650598685</v>
       </c>
     </row>
     <row r="2906">
@@ -14941,7 +14941,7 @@
     </row>
     <row r="2917">
       <c r="A2917">
-        <v>0.8971337269568958</v>
+        <v>0.8971337269568957</v>
       </c>
     </row>
     <row r="2918">
@@ -14976,7 +14976,7 @@
     </row>
     <row r="2924">
       <c r="A2924">
-        <v>0.9788648556074177</v>
+        <v>0.9788648556074176</v>
       </c>
     </row>
     <row r="2925">
@@ -15156,7 +15156,7 @@
     </row>
     <row r="2960">
       <c r="A2960">
-        <v>0.7326167988129591</v>
+        <v>0.732616798812959</v>
       </c>
     </row>
     <row r="2961">
@@ -15261,7 +15261,7 @@
     </row>
     <row r="2981">
       <c r="A2981">
-        <v>0.9482114998888263</v>
+        <v>0.9482114998888262</v>
       </c>
     </row>
     <row r="2982">
@@ -15271,7 +15271,7 @@
     </row>
     <row r="2983">
       <c r="A2983">
-        <v>0.9649559122537395</v>
+        <v>0.9649559122537394</v>
       </c>
     </row>
     <row r="2984">
@@ -15461,7 +15461,7 @@
     </row>
     <row r="3021">
       <c r="A3021">
-        <v>0.7830493804959005</v>
+        <v>0.7830493804959004</v>
       </c>
     </row>
     <row r="3022">
@@ -15556,7 +15556,7 @@
     </row>
     <row r="3040">
       <c r="A3040">
-        <v>0.2693897302957815</v>
+        <v>0.2693897302957814</v>
       </c>
     </row>
     <row r="3041">
@@ -15691,7 +15691,7 @@
     </row>
     <row r="3067">
       <c r="A3067">
-        <v>0.5721891294672598</v>
+        <v>0.5721891294672597</v>
       </c>
     </row>
     <row r="3068">
@@ -15781,7 +15781,7 @@
     </row>
     <row r="3085">
       <c r="A3085">
-        <v>0.9866083324148272</v>
+        <v>0.9866083324148271</v>
       </c>
     </row>
     <row r="3086">
@@ -15886,7 +15886,7 @@
     </row>
     <row r="3106">
       <c r="A3106">
-        <v>0.8860526733226573</v>
+        <v>0.8860526733226572</v>
       </c>
     </row>
     <row r="3107">
@@ -16056,7 +16056,7 @@
     </row>
     <row r="3140">
       <c r="A3140">
-        <v>0.8341229497481451</v>
+        <v>0.834122949748145</v>
       </c>
     </row>
     <row r="3141">
@@ -16071,7 +16071,7 @@
     </row>
     <row r="3143">
       <c r="A3143">
-        <v>0.9435767898365302</v>
+        <v>0.9435767898365301</v>
       </c>
     </row>
     <row r="3144">
@@ -16081,7 +16081,7 @@
     </row>
     <row r="3145">
       <c r="A3145">
-        <v>0.8486326525248567</v>
+        <v>0.8486326525248566</v>
       </c>
     </row>
     <row r="3146">
@@ -16286,7 +16286,7 @@
     </row>
     <row r="3186">
       <c r="A3186">
-        <v>0.8363174702160136</v>
+        <v>0.8363174702160135</v>
       </c>
     </row>
     <row r="3187">
@@ -16421,7 +16421,7 @@
     </row>
     <row r="3213">
       <c r="A3213">
-        <v>0.8986010814014283</v>
+        <v>0.8986010814014282</v>
       </c>
     </row>
     <row r="3214">
@@ -16466,7 +16466,7 @@
     </row>
     <row r="3222">
       <c r="A3222">
-        <v>0.9015052974677456</v>
+        <v>0.9015052974677455</v>
       </c>
     </row>
     <row r="3223">
@@ -16596,7 +16596,7 @@
     </row>
     <row r="3248">
       <c r="A3248">
-        <v>0.5521170732563882</v>
+        <v>0.5521170732563881</v>
       </c>
     </row>
     <row r="3249">
@@ -17036,7 +17036,7 @@
     </row>
     <row r="3336">
       <c r="A3336">
-        <v>0.7740266743332303</v>
+        <v>0.7740266743332302</v>
       </c>
     </row>
     <row r="3337">
@@ -17046,7 +17046,7 @@
     </row>
     <row r="3338">
       <c r="A3338">
-        <v>0.9099519724373431</v>
+        <v>0.909951972437343</v>
       </c>
     </row>
     <row r="3339">
@@ -17136,7 +17136,7 @@
     </row>
     <row r="3356">
       <c r="A3356">
-        <v>0.5815825180945357</v>
+        <v>0.5815825180945356</v>
       </c>
     </row>
     <row r="3357">
@@ -17166,7 +17166,7 @@
     </row>
     <row r="3362">
       <c r="A3362">
-        <v>0.9983777613226395</v>
+        <v>0.9983777613226394</v>
       </c>
     </row>
     <row r="3363">
@@ -17176,7 +17176,7 @@
     </row>
     <row r="3364">
       <c r="A3364">
-        <v>0.7231214555205247</v>
+        <v>0.7231214555205246</v>
       </c>
     </row>
     <row r="3365">
@@ -17326,7 +17326,7 @@
     </row>
     <row r="3394">
       <c r="A3394">
-        <v>0.9624078980072685</v>
+        <v>0.9624078980072684</v>
       </c>
     </row>
     <row r="3395">
@@ -17436,7 +17436,7 @@
     </row>
     <row r="3416">
       <c r="A3416">
-        <v>0.9128881701757931</v>
+        <v>0.912888170175793</v>
       </c>
     </row>
     <row r="3417">
@@ -17461,7 +17461,7 @@
     </row>
     <row r="3421">
       <c r="A3421">
-        <v>0.4801239743647519</v>
+        <v>0.4801239743647518</v>
       </c>
     </row>
     <row r="3422">
@@ -17541,7 +17541,7 @@
     </row>
     <row r="3437">
       <c r="A3437">
-        <v>0.9175070661460471</v>
+        <v>0.917507066146047</v>
       </c>
     </row>
     <row r="3438">
@@ -17706,7 +17706,7 @@
     </row>
     <row r="3470">
       <c r="A3470">
-        <v>0.3332050024339937</v>
+        <v>0.3332050024339936</v>
       </c>
     </row>
     <row r="3471">
@@ -17756,7 +17756,7 @@
     </row>
     <row r="3480">
       <c r="A3480">
-        <v>0.8252170739005788</v>
+        <v>0.8252170739005787</v>
       </c>
     </row>
     <row r="3481">
@@ -17836,7 +17836,7 @@
     </row>
     <row r="3496">
       <c r="A3496">
-        <v>0.7926587527820767</v>
+        <v>0.7926587527820766</v>
       </c>
     </row>
     <row r="3497">
@@ -17921,7 +17921,7 @@
     </row>
     <row r="3513">
       <c r="A3513">
-        <v>0.8232375624251928</v>
+        <v>0.8232375624251927</v>
       </c>
     </row>
     <row r="3514">
@@ -18261,7 +18261,7 @@
     </row>
     <row r="3581">
       <c r="A3581">
-        <v>0.9706516591398972</v>
+        <v>0.9706516591398971</v>
       </c>
     </row>
     <row r="3582">
@@ -18551,7 +18551,7 @@
     </row>
     <row r="3639">
       <c r="A3639">
-        <v>0.9239521684230359</v>
+        <v>0.9239521684230358</v>
       </c>
     </row>
     <row r="3640">
@@ -18756,7 +18756,7 @@
     </row>
     <row r="3680">
       <c r="A3680">
-        <v>0.960983928776933</v>
+        <v>0.9609839287769329</v>
       </c>
     </row>
     <row r="3681">
@@ -18861,7 +18861,7 @@
     </row>
     <row r="3701">
       <c r="A3701">
-        <v>0.668437334839939</v>
+        <v>0.6684373348399389</v>
       </c>
     </row>
     <row r="3702">
@@ -18881,7 +18881,7 @@
     </row>
     <row r="3705">
       <c r="A3705">
-        <v>0.9565182418994283</v>
+        <v>0.9565182418994282</v>
       </c>
     </row>
     <row r="3706">
@@ -19031,7 +19031,7 @@
     </row>
     <row r="3735">
       <c r="A3735">
-        <v>0.7538862691016866</v>
+        <v>0.7538862691016865</v>
       </c>
     </row>
     <row r="3736">
@@ -19051,7 +19051,7 @@
     </row>
     <row r="3739">
       <c r="A3739">
-        <v>0.7658387534293099</v>
+        <v>0.7658387534293098</v>
       </c>
     </row>
     <row r="3740">
@@ -19101,7 +19101,7 @@
     </row>
     <row r="3749">
       <c r="A3749">
-        <v>0.8819886835397695</v>
+        <v>0.8819886835397694</v>
       </c>
     </row>
     <row r="3750">
@@ -19316,7 +19316,7 @@
     </row>
     <row r="3792">
       <c r="A3792">
-        <v>0.929365156453201</v>
+        <v>0.9293651564532009</v>
       </c>
     </row>
     <row r="3793">
@@ -19336,7 +19336,7 @@
     </row>
     <row r="3796">
       <c r="A3796">
-        <v>0.8890868206637425</v>
+        <v>0.8890868206637424</v>
       </c>
     </row>
     <row r="3797">
@@ -19781,7 +19781,7 @@
     </row>
     <row r="3885">
       <c r="A3885">
-        <v>0.6967364036155404</v>
+        <v>0.6967364036155403</v>
       </c>
     </row>
     <row r="3886">
@@ -19936,7 +19936,7 @@
     </row>
     <row r="3916">
       <c r="A3916">
-        <v>0.9385973792700662</v>
+        <v>0.9385973792700661</v>
       </c>
     </row>
     <row r="3917">
@@ -19981,7 +19981,7 @@
     </row>
     <row r="3925">
       <c r="A3925">
-        <v>0.8904758759226678</v>
+        <v>0.8904758759226677</v>
       </c>
     </row>
     <row r="3926">
@@ -20121,7 +20121,7 @@
     </row>
     <row r="3953">
       <c r="A3953">
-        <v>0.3515649593342498</v>
+        <v>0.3515649593342497</v>
       </c>
     </row>
     <row r="3954">
@@ -20206,7 +20206,7 @@
     </row>
     <row r="3970">
       <c r="A3970">
-        <v>0.6273189481020352</v>
+        <v>0.6273189481020351</v>
       </c>
     </row>
     <row r="3971">
@@ -20301,7 +20301,7 @@
     </row>
     <row r="3989">
       <c r="A3989">
-        <v>0.6917425464015397</v>
+        <v>0.6917425464015396</v>
       </c>
     </row>
     <row r="3990">
@@ -20546,7 +20546,7 @@
     </row>
     <row r="4038">
       <c r="A4038">
-        <v>0.950259751002339</v>
+        <v>0.9502597510023389</v>
       </c>
     </row>
     <row r="4039">
@@ -20561,7 +20561,7 @@
     </row>
     <row r="4041">
       <c r="A4041">
-        <v>0.9620991350010018</v>
+        <v>0.9620991350010017</v>
       </c>
     </row>
     <row r="4042">
@@ -20796,7 +20796,7 @@
     </row>
     <row r="4088">
       <c r="A4088">
-        <v>0.9556634718234544</v>
+        <v>0.9556634718234543</v>
       </c>
     </row>
     <row r="4089">
@@ -21156,7 +21156,7 @@
     </row>
     <row r="4160">
       <c r="A4160">
-        <v>0.8205042960868682</v>
+        <v>0.8205042960868681</v>
       </c>
     </row>
     <row r="4161">
@@ -21456,7 +21456,7 @@
     </row>
     <row r="4220">
       <c r="A4220">
-        <v>0.9234831357364312</v>
+        <v>0.9234831357364311</v>
       </c>
     </row>
     <row r="4221">
@@ -21521,7 +21521,7 @@
     </row>
     <row r="4233">
       <c r="A4233">
-        <v>0.6839988138825111</v>
+        <v>0.683998813882511</v>
       </c>
     </row>
     <row r="4234">
@@ -21646,7 +21646,7 @@
     </row>
     <row r="4258">
       <c r="A4258">
-        <v>0.2376448221830959</v>
+        <v>0.2376448221830958</v>
       </c>
     </row>
     <row r="4259">
@@ -21656,7 +21656,7 @@
     </row>
     <row r="4260">
       <c r="A4260">
-        <v>0.8404835356265809</v>
+        <v>0.8404835356265808</v>
       </c>
     </row>
     <row r="4261">
@@ -21696,7 +21696,7 @@
     </row>
     <row r="4268">
       <c r="A4268">
-        <v>0.8592980997418253</v>
+        <v>0.8592980997418252</v>
       </c>
     </row>
     <row r="4269">
@@ -21796,7 +21796,7 @@
     </row>
     <row r="4288">
       <c r="A4288">
-        <v>0.9507052448268512</v>
+        <v>0.9507052448268511</v>
       </c>
     </row>
     <row r="4289">
@@ -21806,7 +21806,7 @@
     </row>
     <row r="4290">
       <c r="A4290">
-        <v>0.8677313816556495</v>
+        <v>0.8677313816556494</v>
       </c>
     </row>
     <row r="4291">
@@ -22011,7 +22011,7 @@
     </row>
     <row r="4331">
       <c r="A4331">
-        <v>0.6787945598932818</v>
+        <v>0.6787945598932817</v>
       </c>
     </row>
     <row r="4332">
@@ -22151,7 +22151,7 @@
     </row>
     <row r="4359">
       <c r="A4359">
-        <v>0.8746236056017716</v>
+        <v>0.8746236056017715</v>
       </c>
     </row>
     <row r="4360">
@@ -22181,7 +22181,7 @@
     </row>
     <row r="4365">
       <c r="A4365">
-        <v>0.935072277646739</v>
+        <v>0.9350722776467389</v>
       </c>
     </row>
     <row r="4366">
@@ -22486,7 +22486,7 @@
     </row>
     <row r="4426">
       <c r="A4426">
-        <v>0.809689834684371</v>
+        <v>0.8096898346843709</v>
       </c>
     </row>
     <row r="4427">
@@ -22751,12 +22751,12 @@
     </row>
     <row r="4479">
       <c r="A4479">
-        <v>0.9377809151061352</v>
+        <v>0.9377809151061351</v>
       </c>
     </row>
     <row r="4480">
       <c r="A4480">
-        <v>0.8747790651509289</v>
+        <v>0.8747790651509288</v>
       </c>
     </row>
     <row r="4481">
@@ -23241,7 +23241,7 @@
     </row>
     <row r="4577">
       <c r="A4577">
-        <v>0.9759421494697284</v>
+        <v>0.9759421494697283</v>
       </c>
     </row>
     <row r="4578">
@@ -23321,7 +23321,7 @@
     </row>
     <row r="4593">
       <c r="A4593">
-        <v>0.9808631546556647</v>
+        <v>0.9808631546556646</v>
       </c>
     </row>
     <row r="4594">
@@ -23336,7 +23336,7 @@
     </row>
     <row r="4596">
       <c r="A4596">
-        <v>0.9952944560539691</v>
+        <v>0.995294456053969</v>
       </c>
     </row>
     <row r="4597">
@@ -23386,7 +23386,7 @@
     </row>
     <row r="4606">
       <c r="A4606">
-        <v>0.882479094841707</v>
+        <v>0.8824790948417069</v>
       </c>
     </row>
     <row r="4607">
@@ -23406,7 +23406,7 @@
     </row>
     <row r="4610">
       <c r="A4610">
-        <v>0.9353477404847475</v>
+        <v>0.9353477404847474</v>
       </c>
     </row>
     <row r="4611">
@@ -23566,7 +23566,7 @@
     </row>
     <row r="4642">
       <c r="A4642">
-        <v>0.8866479086806584</v>
+        <v>0.8866479086806583</v>
       </c>
     </row>
     <row r="4643">
@@ -23581,7 +23581,7 @@
     </row>
     <row r="4645">
       <c r="A4645">
-        <v>0.6161745285824603</v>
+        <v>0.6161745285824602</v>
       </c>
     </row>
     <row r="4646">
@@ -23741,7 +23741,7 @@
     </row>
     <row r="4677">
       <c r="A4677">
-        <v>0.9295465818696173</v>
+        <v>0.9295465818696172</v>
       </c>
     </row>
     <row r="4678">
@@ -23751,7 +23751,7 @@
     </row>
     <row r="4679">
       <c r="A4679">
-        <v>0.7450068476029395</v>
+        <v>0.7450068476029394</v>
       </c>
     </row>
     <row r="4680">
@@ -23846,7 +23846,7 @@
     </row>
     <row r="4698">
       <c r="A4698">
-        <v>0.9968345601958784</v>
+        <v>0.9968345601958783</v>
       </c>
     </row>
     <row r="4699">
@@ -23861,7 +23861,7 @@
     </row>
     <row r="4701">
       <c r="A4701">
-        <v>0.9592889751669425</v>
+        <v>0.9592889751669424</v>
       </c>
     </row>
     <row r="4702">
@@ -23886,7 +23886,7 @@
     </row>
     <row r="4706">
       <c r="A4706">
-        <v>0.7231099241672802</v>
+        <v>0.7231099241672801</v>
       </c>
     </row>
     <row r="4707">
@@ -24006,7 +24006,7 @@
     </row>
     <row r="4730">
       <c r="A4730">
-        <v>0.8406204774108838</v>
+        <v>0.8406204774108837</v>
       </c>
     </row>
     <row r="4731">
@@ -24061,7 +24061,7 @@
     </row>
     <row r="4741">
       <c r="A4741">
-        <v>0.7961856404015995</v>
+        <v>0.7961856404015994</v>
       </c>
     </row>
     <row r="4742">
@@ -24086,7 +24086,7 @@
     </row>
     <row r="4746">
       <c r="A4746">
-        <v>0.9297294198383364</v>
+        <v>0.9297294198383363</v>
       </c>
     </row>
     <row r="4747">
@@ -24311,7 +24311,7 @@
     </row>
     <row r="4791">
       <c r="A4791">
-        <v>0.6115713349686685</v>
+        <v>0.6115713349686684</v>
       </c>
     </row>
     <row r="4792">
@@ -24451,7 +24451,7 @@
     </row>
     <row r="4819">
       <c r="A4819">
-        <v>0.6853579302625728</v>
+        <v>0.6853579302625727</v>
       </c>
     </row>
     <row r="4820">
@@ -24846,7 +24846,7 @@
     </row>
     <row r="4898">
       <c r="A4898">
-        <v>0.9087764970036139</v>
+        <v>0.9087764970036138</v>
       </c>
     </row>
     <row r="4899">
@@ -24901,7 +24901,7 @@
     </row>
     <row r="4909">
       <c r="A4909">
-        <v>0.9707157209772968</v>
+        <v>0.9707157209772967</v>
       </c>
     </row>
     <row r="4910">
@@ -24986,7 +24986,7 @@
     </row>
     <row r="4926">
       <c r="A4926">
-        <v>0.940443725234615</v>
+        <v>0.9404437252346149</v>
       </c>
     </row>
     <row r="4927">
@@ -25346,7 +25346,7 @@
     </row>
     <row r="4998">
       <c r="A4998">
-        <v>0.8524164776524063</v>
+        <v>0.8524164776524062</v>
       </c>
     </row>
     <row r="4999">
